--- a/output/semivariogram-models.xlsx
+++ b/output/semivariogram-models.xlsx
@@ -456,7 +456,7 @@
         <v>695.8741</v>
       </c>
       <c r="H3">
-        <v>0.7517</v>
+        <v>0.132829395189961</v>
       </c>
     </row>
   </sheetData>

--- a/output/semivariogram-models.xlsx
+++ b/output/semivariogram-models.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,52 +411,532 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.4088</v>
+        <v>0.4708</v>
       </c>
       <c r="D2">
-        <v>0.9398</v>
+        <v>0.9671999999999999</v>
       </c>
       <c r="E2">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="F2">
-        <v>0.4349861672696319</v>
+        <v>0.4867659222497933</v>
       </c>
       <c r="G2">
-        <v>1635.2239</v>
+        <v>3218.2295</v>
       </c>
       <c r="H2">
-        <v>0.7517</v>
+        <v>-0.2788779124871463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>dry_16:17</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>0.5925</v>
+      </c>
+      <c r="D3">
+        <v>2.2467</v>
+      </c>
+      <c r="E3">
+        <v>0.55</v>
+      </c>
+      <c r="F3">
+        <v>0.263720122846842</v>
+      </c>
+      <c r="G3">
+        <v>14054.0335</v>
+      </c>
+      <c r="H3">
+        <v>0.6809918163825296</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>dry_17:18</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>0.6423</v>
+      </c>
+      <c r="D4">
+        <v>0.9475</v>
+      </c>
+      <c r="E4">
+        <v>0.35</v>
+      </c>
+      <c r="F4">
+        <v>0.6778891820580475</v>
+      </c>
+      <c r="G4">
+        <v>1669.8614</v>
+      </c>
+      <c r="H4">
+        <v>0.1725688772723553</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>dry_18:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>0.9519</v>
+      </c>
+      <c r="D5">
+        <v>2.2041</v>
+      </c>
+      <c r="E5">
+        <v>0.37</v>
+      </c>
+      <c r="F5">
+        <v>0.4318769565809174</v>
+      </c>
+      <c r="G5">
+        <v>58045.9339</v>
+      </c>
+      <c r="H5">
+        <v>0.4564835111621576</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dry_19:20</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>0.3891</v>
+      </c>
+      <c r="D6">
+        <v>1.3781</v>
+      </c>
+      <c r="E6">
+        <v>0.23</v>
+      </c>
+      <c r="F6">
+        <v>0.2823452579638633</v>
+      </c>
+      <c r="G6">
+        <v>8437.2984</v>
+      </c>
+      <c r="H6">
+        <v>0.7330696789932608</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dry_20:21</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>0.307</v>
+      </c>
+      <c r="D7">
+        <v>2.3287</v>
+      </c>
+      <c r="E7">
+        <v>0.32</v>
+      </c>
+      <c r="F7">
+        <v>0.1318332116631597</v>
+      </c>
+      <c r="G7">
+        <v>28551.1524</v>
+      </c>
+      <c r="H7">
+        <v>0.4851515633716246</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dry_21:22</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>0.9479</v>
+      </c>
+      <c r="D8">
+        <v>2.09</v>
+      </c>
+      <c r="E8">
+        <v>0.31</v>
+      </c>
+      <c r="F8">
+        <v>0.4535406698564594</v>
+      </c>
+      <c r="G8">
+        <v>12213.6097</v>
+      </c>
+      <c r="H8">
+        <v>0.5898096377768396</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dry_22:23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>0.436</v>
+      </c>
+      <c r="D9">
+        <v>1.8964</v>
+      </c>
+      <c r="E9">
+        <v>0.19</v>
+      </c>
+      <c r="F9">
+        <v>0.2299093018350559</v>
+      </c>
+      <c r="G9">
+        <v>19869.0643</v>
+      </c>
+      <c r="H9">
+        <v>0.08798810850740627</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>dry_23:24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>0.609</v>
+      </c>
+      <c r="D10">
+        <v>1.6536</v>
+      </c>
+      <c r="E10">
+        <v>0.33</v>
+      </c>
+      <c r="F10">
+        <v>0.3682873730043542</v>
+      </c>
+      <c r="G10">
+        <v>2627.71</v>
+      </c>
+      <c r="H10">
+        <v>0.7974712516774423</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>rainy_15:16</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Exp</t>
         </is>
       </c>
-      <c r="C3">
+      <c r="C11">
         <v>0.3176</v>
       </c>
-      <c r="D3">
+      <c r="D11">
         <v>1.1964</v>
       </c>
-      <c r="E3">
+      <c r="E11">
         <v>0.66</v>
       </c>
-      <c r="F3">
+      <c r="F11">
         <v>0.2654630558341692</v>
       </c>
-      <c r="G3">
+      <c r="G11">
         <v>695.8741</v>
       </c>
-      <c r="H3">
+      <c r="H11">
         <v>0.132829395189961</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>rainy_16:17</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>0.5676</v>
+      </c>
+      <c r="D12">
+        <v>1.4486</v>
+      </c>
+      <c r="E12">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.3918265911914952</v>
+      </c>
+      <c r="G12">
+        <v>3195.2251</v>
+      </c>
+      <c r="H12">
+        <v>0.5905945091401411</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>rainy_17:18</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>0.4338</v>
+      </c>
+      <c r="D13">
+        <v>2.6489</v>
+      </c>
+      <c r="E13">
+        <v>1.94</v>
+      </c>
+      <c r="F13">
+        <v>0.1637660915851863</v>
+      </c>
+      <c r="G13">
+        <v>7774.9558</v>
+      </c>
+      <c r="H13">
+        <v>0.7772119210566907</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>rainy_18:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>0.5773</v>
+      </c>
+      <c r="D14">
+        <v>2.0408</v>
+      </c>
+      <c r="E14">
+        <v>0.58</v>
+      </c>
+      <c r="F14">
+        <v>0.2828792630341043</v>
+      </c>
+      <c r="G14">
+        <v>11620.8917</v>
+      </c>
+      <c r="H14">
+        <v>0.4781996697612</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>rainy_19:20</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>0.5054</v>
+      </c>
+      <c r="D15">
+        <v>1.7789</v>
+      </c>
+      <c r="E15">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.2841081567260667</v>
+      </c>
+      <c r="G15">
+        <v>21880.6056</v>
+      </c>
+      <c r="H15">
+        <v>0.372403928230346</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>rainy_20:21</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>0.5622</v>
+      </c>
+      <c r="D16">
+        <v>2.7801</v>
+      </c>
+      <c r="E16">
+        <v>1.95</v>
+      </c>
+      <c r="F16">
+        <v>0.202222941620805</v>
+      </c>
+      <c r="G16">
+        <v>4726.808</v>
+      </c>
+      <c r="H16">
+        <v>0.7378166232139801</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>rainy_21:22</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>0.6094000000000001</v>
+      </c>
+      <c r="D17">
+        <v>3.4743</v>
+      </c>
+      <c r="E17">
+        <v>2.04</v>
+      </c>
+      <c r="F17">
+        <v>0.1754022393000029</v>
+      </c>
+      <c r="G17">
+        <v>14391.6154</v>
+      </c>
+      <c r="H17">
+        <v>0.7118839421231936</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>rainy_22:23</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>0.2238</v>
+      </c>
+      <c r="D18">
+        <v>1.7026</v>
+      </c>
+      <c r="E18">
+        <v>0.68</v>
+      </c>
+      <c r="F18">
+        <v>0.1314460237284154</v>
+      </c>
+      <c r="G18">
+        <v>17126.4754</v>
+      </c>
+      <c r="H18">
+        <v>0.4502551938156114</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>rainy_23:24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>0.249</v>
+      </c>
+      <c r="D19">
+        <v>1.571</v>
+      </c>
+      <c r="E19">
+        <v>0.72</v>
+      </c>
+      <c r="F19">
+        <v>0.158497772119669</v>
+      </c>
+      <c r="G19">
+        <v>23610.5932</v>
+      </c>
+      <c r="H19">
+        <v>0.4635745747947122</v>
       </c>
     </row>
   </sheetData>

--- a/output/semivariogram-models.xlsx
+++ b/output/semivariogram-models.xlsx
@@ -527,26 +527,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.3891</v>
+        <v>0.6035</v>
       </c>
       <c r="D6">
-        <v>1.3781</v>
+        <v>1.3499</v>
       </c>
       <c r="E6">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="F6">
-        <v>0.2823452579638633</v>
+        <v>0.4470701533446922</v>
       </c>
       <c r="G6">
-        <v>8437.2984</v>
+        <v>840.9776000000001</v>
       </c>
       <c r="H6">
-        <v>0.7330696789932608</v>
+        <v>0.8457204115375917</v>
       </c>
     </row>
     <row r="7">

--- a/output/semivariogram-models.xlsx
+++ b/output/semivariogram-models.xlsx
@@ -407,26 +407,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="C2">
-        <v>0.4708</v>
+        <v>0.5362</v>
       </c>
       <c r="D2">
-        <v>0.9671999999999999</v>
+        <v>0.9239000000000001</v>
       </c>
       <c r="E2">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="F2">
-        <v>0.4867659222497933</v>
+        <v>0.5803658404589241</v>
       </c>
       <c r="G2">
-        <v>3218.2295</v>
+        <v>1743.5906</v>
       </c>
       <c r="H2">
-        <v>-0.2788779124871463</v>
+        <v>0.2931067733833046</v>
       </c>
     </row>
     <row r="3">
